--- a/nfreqs.xlsx
+++ b/nfreqs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="11328" windowHeight="5928"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
   <si>
     <t>Index</t>
   </si>
@@ -126,9 +126,6 @@
     <t>7\5</t>
   </si>
   <si>
-    <t>5\7</t>
-  </si>
-  <si>
     <t>17\32</t>
   </si>
   <si>
@@ -154,13 +151,37 @@
   </si>
   <si>
     <t>32\32</t>
+  </si>
+  <si>
+    <t>6\5</t>
+  </si>
+  <si>
+    <t>12\5</t>
+  </si>
+  <si>
+    <t>5\3</t>
+  </si>
+  <si>
+    <t>15\8</t>
+  </si>
+  <si>
+    <t>17\16</t>
+  </si>
+  <si>
+    <t>14\5</t>
+  </si>
+  <si>
+    <t>8\5</t>
+  </si>
+  <si>
+    <t>5\6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +225,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -225,6 +262,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1124,6 +1162,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1752,7 +1791,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.572859999999999</c:v>
+                  <c:v>22.91666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>24.0625</c:v>
@@ -1763,26 +1802,47 @@
                 <c:pt idx="9">
                   <c:v>27.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.21875</c:v>
+                </c:pt>
                 <c:pt idx="11">
                   <c:v>30.9375</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>34.375</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>36.667000000000002</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.5</c:v>
+                </c:pt>
                 <c:pt idx="16">
                   <c:v>41.25</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.833300000000001</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>48.125</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.5625</c:v>
+                </c:pt>
                 <c:pt idx="21">
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>61.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>68.75</c:v>
@@ -1826,17 +1886,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="75925376"/>
-        <c:axId val="75926912"/>
+        <c:smooth val="0"/>
+        <c:axId val="143225216"/>
+        <c:axId val="143226752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75925376"/>
+        <c:axId val="143225216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -1848,34 +1921,40 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75926912"/>
+        <c:crossAx val="143226752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75926912"/>
+        <c:axId val="143226752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75925376"/>
+        <c:crossAx val="143225216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1887,8 +1966,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1903,6 +1993,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2012,6 +2103,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2108,7 +2200,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.572859999999999</c:v>
+                  <c:v>22.91666</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>24.0625</c:v>
@@ -2122,36 +2214,53 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="106856448"/>
-        <c:axId val="106857984"/>
+        <c:smooth val="0"/>
+        <c:axId val="143251712"/>
+        <c:axId val="143253504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106856448"/>
+        <c:axId val="143251712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106857984"/>
+        <c:crossAx val="143253504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106857984"/>
+        <c:axId val="143253504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="13"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106856448"/>
+        <c:crossAx val="143251712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2164,9 +2273,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2321,6 +2432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2355,6 +2467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2530,20 +2643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2572,21 +2685,21 @@
         <v>13.75</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E14" si="1">100*(D2-C2)/C2</f>
+        <f t="shared" ref="E2:E15" si="1">100*(D2-C2)/C2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1">
-        <f>POWER(POWER(2,1/12), A2)*13.5</f>
+        <f t="shared" ref="I2:I33" si="2">POWER(POWER(2,1/12), A2)*13.5</f>
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2605,17 +2718,17 @@
         <v>0.28668004513220968</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1">
-        <f>POWER(POWER(2,1/12), A3)*13.5</f>
+        <f t="shared" si="2"/>
         <v>14.302751773850487</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2637,14 +2750,14 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
-        <f>POWER(POWER(2,1/12), A4)*13.5</f>
+        <f t="shared" si="2"/>
         <v>15.153237652176536</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2666,12 +2779,12 @@
         <v>33</v>
       </c>
       <c r="I5" s="1">
-        <f>POWER(POWER(2,1/12), A5)*13.5</f>
+        <f t="shared" si="2"/>
         <v>16.054296052536738</v>
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2693,15 +2806,15 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1">
-        <f>POWER(POWER(2,1/12), A6)*13.5</f>
+        <f t="shared" si="2"/>
         <v>17.008934173580787</v>
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2723,12 +2836,12 @@
         <v>30</v>
       </c>
       <c r="I7" s="1">
-        <f>POWER(POWER(2,1/12), A7)*13.5</f>
+        <f t="shared" si="2"/>
         <v>18.020338031295463</v>
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2750,12 +2863,12 @@
         <v>35</v>
       </c>
       <c r="I8" s="1">
-        <f>POWER(POWER(2,1/12), A8)*13.5</f>
+        <f t="shared" si="2"/>
         <v>19.091883092036785</v>
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2777,15 +2890,15 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
-        <f>POWER(POWER(2,1/12), A9)*13.5</f>
+        <f t="shared" si="2"/>
         <v>20.227145537835202</v>
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2807,12 +2920,12 @@
         <v>34</v>
       </c>
       <c r="I10" s="1">
-        <f>POWER(POWER(2,1/12), A10)*13.5</f>
+        <f t="shared" si="2"/>
         <v>21.429914201570693</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2824,22 +2937,22 @@
         <v>23.124651419477154</v>
       </c>
       <c r="D11">
-        <v>23.572859999999999</v>
+        <v>22.91666</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1.9382284835019539</v>
+        <v>-0.8994359123699861</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1">
-        <f>POWER(POWER(2,1/12), A11)*13.5</f>
+        <f t="shared" si="2"/>
         <v>22.704203211850295</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2861,15 +2974,15 @@
         <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1">
-        <f>POWER(POWER(2,1/12), A12)*13.5</f>
+        <f t="shared" si="2"/>
         <v>24.054265389789162</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2888,18 +3001,18 @@
         <v>-0.67533490381609351</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1">
-        <f>POWER(POWER(2,1/12), A13)*13.5</f>
+        <f t="shared" si="2"/>
         <v>25.484606442405731</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2921,15 +3034,15 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1">
-        <f>POWER(POWER(2,1/12), A14)*13.5</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2940,12 +3053,22 @@
         <f t="shared" si="0"/>
         <v>29.13523509488062</v>
       </c>
+      <c r="D15">
+        <v>29.21875</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.28664572242993164</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="1">
-        <f>POWER(POWER(2,1/12), A15)*13.5</f>
+        <f t="shared" si="2"/>
         <v>28.605503547700973</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2960,18 +3083,18 @@
         <v>30.9375</v>
       </c>
       <c r="E16">
-        <f>100*(D16-C16)/C16</f>
+        <f t="shared" ref="E16:E26" si="3">100*(D16-C16)/C16</f>
         <v>0.22610579078814552</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="1">
-        <f>POWER(POWER(2,1/12), A16)*13.5</f>
+        <f t="shared" si="2"/>
         <v>30.306475304353079</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2982,12 +3105,22 @@
         <f t="shared" si="0"/>
         <v>32.703195662574835</v>
       </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.9075698304457277</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="1">
-        <f>POWER(POWER(2,1/12), A17)*13.5</f>
+        <f t="shared" si="2"/>
         <v>32.108592105073477</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3002,18 +3135,18 @@
         <v>34.375</v>
       </c>
       <c r="E18">
-        <f>100*(D18-C18)/C18</f>
+        <f t="shared" si="3"/>
         <v>-0.78743425198754602</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="1">
-        <f>POWER(POWER(2,1/12), A18)*13.5</f>
+        <f t="shared" si="2"/>
         <v>34.017868347161581</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3028,18 +3161,18 @@
         <v>36.667000000000002</v>
       </c>
       <c r="E19">
-        <f>100*(D19-C19)/C19</f>
+        <f t="shared" si="3"/>
         <v>-0.11195347665950942</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="1">
-        <f>POWER(POWER(2,1/12), A19)*13.5</f>
+        <f t="shared" si="2"/>
         <v>36.040676062590933</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3050,12 +3183,22 @@
         <f t="shared" si="0"/>
         <v>38.890872965260122</v>
       </c>
+      <c r="D20">
+        <v>38.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-1.0050506338833682</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I20" s="1">
-        <f>POWER(POWER(2,1/12), A20)*13.5</f>
+        <f t="shared" si="2"/>
         <v>38.183766184073576</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3070,18 +3213,18 @@
         <v>41.25</v>
       </c>
       <c r="E21">
-        <f>100*(D21-C21)/C21</f>
+        <f t="shared" si="3"/>
         <v>0.11298906275254569</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="1">
-        <f>POWER(POWER(2,1/12), A21)*13.5</f>
+        <f t="shared" si="2"/>
         <v>40.454291075670412</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3092,12 +3235,22 @@
         <f t="shared" si="0"/>
         <v>43.653528929125493</v>
       </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.79368399158983682</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I22" s="1">
-        <f>POWER(POWER(2,1/12), A22)*13.5</f>
+        <f t="shared" si="2"/>
         <v>42.859828403141393</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3108,12 +3261,22 @@
         <f t="shared" si="0"/>
         <v>46.249302838954307</v>
       </c>
+      <c r="D23">
+        <v>45.833300000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>-0.89947915626507546</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I23" s="1">
-        <f>POWER(POWER(2,1/12), A23)*13.5</f>
+        <f t="shared" si="2"/>
         <v>45.408406423700598</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3128,18 +3291,18 @@
         <v>48.125</v>
       </c>
       <c r="E24">
-        <f>100*(D24-C24)/C24</f>
+        <f t="shared" si="3"/>
         <v>-1.7845707729298859</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <f>POWER(POWER(2,1/12), A24)*13.5</f>
+        <f t="shared" si="2"/>
         <v>48.108530779578331</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3150,12 +3313,22 @@
         <f t="shared" si="0"/>
         <v>51.913087197493162</v>
       </c>
+      <c r="D25">
+        <v>51.5625</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>-0.67533490381610706</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="1">
-        <f>POWER(POWER(2,1/12), A25)*13.5</f>
+        <f t="shared" si="2"/>
         <v>50.969212884811469</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3170,18 +3343,18 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <f>100*(D26-C26)/C26</f>
+        <f t="shared" si="3"/>
         <v>-2.5837917664003636E-14</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
       </c>
       <c r="I26" s="1">
-        <f>POWER(POWER(2,1/12), A26)*13.5</f>
+        <f t="shared" si="2"/>
         <v>54.000000000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3193,11 +3366,11 @@
         <v>58.270470189761255</v>
       </c>
       <c r="I27" s="1">
-        <f>POWER(POWER(2,1/12), A27)*13.5</f>
+        <f t="shared" si="2"/>
         <v>57.21100709540196</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3219,11 +3392,11 @@
         <v>25</v>
       </c>
       <c r="I28" s="1">
-        <f>POWER(POWER(2,1/12), A28)*13.5</f>
+        <f t="shared" si="2"/>
         <v>60.612950608706157</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3234,12 +3407,22 @@
         <f t="shared" si="0"/>
         <v>65.406391325149698</v>
       </c>
+      <c r="D29">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <f>100*(D29-C29)/C29</f>
+        <v>0.90756983044568384</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I29" s="1">
-        <f>POWER(POWER(2,1/12), A29)*13.5</f>
+        <f t="shared" si="2"/>
         <v>64.217184210146968</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3261,11 +3444,11 @@
         <v>24</v>
       </c>
       <c r="I30" s="1">
-        <f>POWER(POWER(2,1/12), A30)*13.5</f>
+        <f t="shared" si="2"/>
         <v>68.035736694323163</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3287,11 +3470,11 @@
         <v>31</v>
       </c>
       <c r="I31" s="1">
-        <f>POWER(POWER(2,1/12), A31)*13.5</f>
+        <f t="shared" si="2"/>
         <v>72.081352125181866</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3303,11 +3486,11 @@
         <v>77.781745930520259</v>
       </c>
       <c r="I32" s="1">
-        <f>POWER(POWER(2,1/12), A32)*13.5</f>
+        <f t="shared" si="2"/>
         <v>76.367532368147167</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3329,11 +3512,11 @@
         <v>3</v>
       </c>
       <c r="I33" s="1">
-        <f>POWER(POWER(2,1/12), A33)*13.5</f>
+        <f t="shared" si="2"/>
         <v>80.908582151340823</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3341,15 +3524,15 @@
         <v>7</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:C65" si="2">POWER(POWER(2,1/12), A34)*13.75</f>
+        <f t="shared" ref="C34:C65" si="4">POWER(POWER(2,1/12), A34)*13.75</f>
         <v>87.307057858251</v>
       </c>
       <c r="I34" s="1">
-        <f>POWER(POWER(2,1/12), A34)*13.5</f>
+        <f t="shared" ref="I34:I65" si="5">POWER(POWER(2,1/12), A34)*13.5</f>
         <v>85.719656806282799</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3357,15 +3540,15 @@
         <v>8</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92.498605677908628</v>
       </c>
       <c r="I35" s="1">
-        <f>POWER(POWER(2,1/12), A35)*13.5</f>
+        <f t="shared" si="5"/>
         <v>90.816812847401195</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3373,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97.998858995437359</v>
       </c>
       <c r="D36">
@@ -3387,11 +3570,11 @@
         <v>21</v>
       </c>
       <c r="I36" s="1">
-        <f>POWER(POWER(2,1/12), A36)*13.5</f>
+        <f t="shared" si="5"/>
         <v>96.217061559156676</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3399,15 +3582,15 @@
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103.82617439498634</v>
       </c>
       <c r="I37" s="1">
-        <f>POWER(POWER(2,1/12), A37)*13.5</f>
+        <f t="shared" si="5"/>
         <v>101.93842576962295</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3415,7 +3598,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110.00000000000004</v>
       </c>
       <c r="D38">
@@ -3429,11 +3612,11 @@
         <v>4</v>
       </c>
       <c r="I38" s="1">
-        <f>POWER(POWER(2,1/12), A38)*13.5</f>
+        <f t="shared" si="5"/>
         <v>108.00000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3441,15 +3624,15 @@
         <v>12</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116.54094037952251</v>
       </c>
       <c r="I39" s="1">
-        <f>POWER(POWER(2,1/12), A39)*13.5</f>
+        <f t="shared" si="5"/>
         <v>114.42201419080392</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3457,7 +3640,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123.47082531403107</v>
       </c>
       <c r="D40">
@@ -3471,11 +3654,11 @@
         <v>26</v>
       </c>
       <c r="I40" s="1">
-        <f>POWER(POWER(2,1/12), A40)*13.5</f>
+        <f t="shared" si="5"/>
         <v>121.22590121741233</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3483,15 +3666,15 @@
         <v>2</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130.8127826502994</v>
       </c>
       <c r="I41" s="1">
-        <f>POWER(POWER(2,1/12), A41)*13.5</f>
+        <f t="shared" si="5"/>
         <v>128.43436842029394</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3499,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>138.59131548843609</v>
       </c>
       <c r="D42">
@@ -3513,11 +3696,11 @@
         <v>5</v>
       </c>
       <c r="I42" s="1">
-        <f>POWER(POWER(2,1/12), A42)*13.5</f>
+        <f t="shared" si="5"/>
         <v>136.07147338864635</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3525,7 +3708,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>146.83238395870384</v>
       </c>
       <c r="D43">
@@ -3539,11 +3722,11 @@
         <v>32</v>
       </c>
       <c r="I43" s="1">
-        <f>POWER(POWER(2,1/12), A43)*13.5</f>
+        <f t="shared" si="5"/>
         <v>144.16270425036379</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3551,15 +3734,15 @@
         <v>5</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>155.56349186104052</v>
       </c>
       <c r="I44" s="1">
-        <f>POWER(POWER(2,1/12), A44)*13.5</f>
+        <f t="shared" si="5"/>
         <v>152.73506473629433</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3567,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>164.81377845643507</v>
       </c>
       <c r="D45">
@@ -3581,11 +3764,11 @@
         <v>6</v>
       </c>
       <c r="I45" s="1">
-        <f>POWER(POWER(2,1/12), A45)*13.5</f>
+        <f t="shared" si="5"/>
         <v>161.8171643026817</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3593,15 +3776,15 @@
         <v>7</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>174.614115716502</v>
       </c>
       <c r="I46" s="1">
-        <f>POWER(POWER(2,1/12), A46)*13.5</f>
+        <f t="shared" si="5"/>
         <v>171.4393136125656</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3609,15 +3792,15 @@
         <v>8</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>184.99721135581726</v>
       </c>
       <c r="I47" s="1">
-        <f>POWER(POWER(2,1/12), A47)*13.5</f>
+        <f t="shared" si="5"/>
         <v>181.63362569480239</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3625,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>195.99771799087478</v>
       </c>
       <c r="D48">
@@ -3639,11 +3822,11 @@
         <v>7</v>
       </c>
       <c r="I48" s="1">
-        <f>POWER(POWER(2,1/12), A48)*13.5</f>
+        <f t="shared" si="5"/>
         <v>192.43412311831341</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3651,15 +3834,15 @@
         <v>10</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>207.65234878997268</v>
       </c>
       <c r="I49" s="1">
-        <f>POWER(POWER(2,1/12), A49)*13.5</f>
+        <f t="shared" si="5"/>
         <v>203.87685153924591</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3667,7 +3850,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>220.00000000000009</v>
       </c>
       <c r="D50">
@@ -3681,11 +3864,11 @@
         <v>8</v>
       </c>
       <c r="I50" s="1">
-        <f>POWER(POWER(2,1/12), A50)*13.5</f>
+        <f t="shared" si="5"/>
         <v>216.00000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3693,15 +3876,15 @@
         <v>12</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>233.08188075904508</v>
       </c>
       <c r="I51" s="1">
-        <f>POWER(POWER(2,1/12), A51)*13.5</f>
+        <f t="shared" si="5"/>
         <v>228.84402838160787</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3709,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>246.94165062806221</v>
       </c>
       <c r="D52">
@@ -3723,11 +3906,11 @@
         <v>9</v>
       </c>
       <c r="I52" s="1">
-        <f>POWER(POWER(2,1/12), A52)*13.5</f>
+        <f t="shared" si="5"/>
         <v>242.45180243482471</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3735,15 +3918,15 @@
         <v>2</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>261.62556530059879</v>
       </c>
       <c r="I53" s="1">
-        <f>POWER(POWER(2,1/12), A53)*13.5</f>
+        <f t="shared" si="5"/>
         <v>256.86873684058793</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3751,7 +3934,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>277.18263097687225</v>
       </c>
       <c r="D54">
@@ -3765,11 +3948,11 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <f>POWER(POWER(2,1/12), A54)*13.5</f>
+        <f t="shared" si="5"/>
         <v>272.14294677729276</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3777,15 +3960,15 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>293.66476791740769</v>
       </c>
       <c r="I55" s="1">
-        <f>POWER(POWER(2,1/12), A55)*13.5</f>
+        <f t="shared" si="5"/>
         <v>288.32540850072758</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3793,15 +3976,15 @@
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>311.12698372208109</v>
       </c>
       <c r="I56" s="1">
-        <f>POWER(POWER(2,1/12), A56)*13.5</f>
+        <f t="shared" si="5"/>
         <v>305.47012947258872</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3809,15 +3992,15 @@
         <v>6</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>329.6275569128702</v>
       </c>
       <c r="I57" s="1">
-        <f>POWER(POWER(2,1/12), A57)*13.5</f>
+        <f t="shared" si="5"/>
         <v>323.63432860536346</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3825,15 +4008,15 @@
         <v>7</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>349.22823143300411</v>
       </c>
       <c r="I58" s="1">
-        <f>POWER(POWER(2,1/12), A58)*13.5</f>
+        <f t="shared" si="5"/>
         <v>342.87862722513131</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3841,15 +4024,15 @@
         <v>8</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>369.99442271163463</v>
       </c>
       <c r="I59" s="1">
-        <f>POWER(POWER(2,1/12), A59)*13.5</f>
+        <f t="shared" si="5"/>
         <v>363.26725138960489</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3857,15 +4040,15 @@
         <v>9</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>391.99543598174955</v>
       </c>
       <c r="I60" s="1">
-        <f>POWER(POWER(2,1/12), A60)*13.5</f>
+        <f t="shared" si="5"/>
         <v>384.86824623662682</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3873,15 +4056,15 @@
         <v>10</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>415.30469757994547</v>
       </c>
       <c r="I61" s="1">
-        <f>POWER(POWER(2,1/12), A61)*13.5</f>
+        <f t="shared" si="5"/>
         <v>407.75370307849192</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3889,15 +4072,15 @@
         <v>11</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>440.00000000000017</v>
       </c>
       <c r="I62" s="1">
-        <f>POWER(POWER(2,1/12), A62)*13.5</f>
+        <f t="shared" si="5"/>
         <v>432.00000000000017</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3905,15 +4088,15 @@
         <v>12</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>466.16376151809015</v>
       </c>
       <c r="I63" s="1">
-        <f>POWER(POWER(2,1/12), A63)*13.5</f>
+        <f t="shared" si="5"/>
         <v>457.68805676321574</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3921,15 +4104,15 @@
         <v>13</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>493.88330125612453</v>
       </c>
       <c r="I64" s="1">
-        <f>POWER(POWER(2,1/12), A64)*13.5</f>
+        <f t="shared" si="5"/>
         <v>484.90360486964954</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3937,15 +4120,15 @@
         <v>2</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>523.25113060119759</v>
       </c>
       <c r="I65" s="1">
-        <f>POWER(POWER(2,1/12), A65)*13.5</f>
+        <f t="shared" si="5"/>
         <v>513.73747368117586</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3953,15 +4136,15 @@
         <v>3</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C101" si="3">POWER(POWER(2,1/12), A66)*13.75</f>
+        <f t="shared" ref="C66:C101" si="6">POWER(POWER(2,1/12), A66)*13.75</f>
         <v>554.36526195374461</v>
       </c>
       <c r="I66" s="1">
-        <f>POWER(POWER(2,1/12), A66)*13.5</f>
+        <f t="shared" ref="I66:I101" si="7">POWER(POWER(2,1/12), A66)*13.5</f>
         <v>544.28589355458564</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3969,15 +4152,15 @@
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>587.3295358348156</v>
       </c>
       <c r="I67" s="1">
-        <f>POWER(POWER(2,1/12), A67)*13.5</f>
+        <f t="shared" si="7"/>
         <v>576.65081700145538</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3985,15 +4168,15 @@
         <v>5</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>622.2539674441623</v>
       </c>
       <c r="I68" s="1">
-        <f>POWER(POWER(2,1/12), A68)*13.5</f>
+        <f t="shared" si="7"/>
         <v>610.94025894517745</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4001,15 +4184,15 @@
         <v>6</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>659.25511382574041</v>
       </c>
       <c r="I69" s="1">
-        <f>POWER(POWER(2,1/12), A69)*13.5</f>
+        <f t="shared" si="7"/>
         <v>647.26865721072704</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4017,15 +4200,15 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>698.45646286600834</v>
       </c>
       <c r="I70" s="1">
-        <f>POWER(POWER(2,1/12), A70)*13.5</f>
+        <f t="shared" si="7"/>
         <v>685.75725445026274</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4033,15 +4216,15 @@
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>739.98884542326937</v>
       </c>
       <c r="I71" s="1">
-        <f>POWER(POWER(2,1/12), A71)*13.5</f>
+        <f t="shared" si="7"/>
         <v>726.5345027792099</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4049,15 +4232,15 @@
         <v>9</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>783.99087196349922</v>
       </c>
       <c r="I72" s="1">
-        <f>POWER(POWER(2,1/12), A72)*13.5</f>
+        <f t="shared" si="7"/>
         <v>769.73649247325375</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4065,15 +4248,15 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>830.60939515989094</v>
       </c>
       <c r="I73" s="1">
-        <f>POWER(POWER(2,1/12), A73)*13.5</f>
+        <f t="shared" si="7"/>
         <v>815.50740615698385</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4081,15 +4264,15 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>880.0000000000008</v>
       </c>
       <c r="I74" s="1">
-        <f>POWER(POWER(2,1/12), A74)*13.5</f>
+        <f t="shared" si="7"/>
         <v>864.0000000000008</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4097,15 +4280,15 @@
         <v>12</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>932.32752303618065</v>
       </c>
       <c r="I75" s="1">
-        <f>POWER(POWER(2,1/12), A75)*13.5</f>
+        <f t="shared" si="7"/>
         <v>915.37611352643194</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4113,15 +4296,15 @@
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>987.76660251224905</v>
       </c>
       <c r="I76" s="1">
-        <f>POWER(POWER(2,1/12), A76)*13.5</f>
+        <f t="shared" si="7"/>
         <v>969.80720973929908</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4129,15 +4312,15 @@
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1046.5022612023956</v>
       </c>
       <c r="I77" s="1">
-        <f>POWER(POWER(2,1/12), A77)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1027.4749473623522</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4145,15 +4328,15 @@
         <v>3</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1108.7305239074892</v>
       </c>
       <c r="I78" s="1">
-        <f>POWER(POWER(2,1/12), A78)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1088.5717871091713</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4161,15 +4344,15 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1174.6590716696312</v>
       </c>
       <c r="I79" s="1">
-        <f>POWER(POWER(2,1/12), A79)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1153.3016340029108</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4177,15 +4360,15 @@
         <v>5</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1244.5079348883248</v>
       </c>
       <c r="I80" s="1">
-        <f>POWER(POWER(2,1/12), A80)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1221.8805178903553</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4193,15 +4376,15 @@
         <v>6</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1318.5102276514808</v>
       </c>
       <c r="I81" s="1">
-        <f>POWER(POWER(2,1/12), A81)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1294.5373144214541</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4209,15 +4392,15 @@
         <v>7</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1396.9129257320169</v>
       </c>
       <c r="I82" s="1">
-        <f>POWER(POWER(2,1/12), A82)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1371.5145089005257</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4225,15 +4408,15 @@
         <v>8</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1479.977690846539</v>
       </c>
       <c r="I83" s="1">
-        <f>POWER(POWER(2,1/12), A83)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1453.06900555842</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4241,15 +4424,15 @@
         <v>9</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1567.9817439269987</v>
       </c>
       <c r="I84" s="1">
-        <f>POWER(POWER(2,1/12), A84)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1539.4729849465077</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4257,15 +4440,15 @@
         <v>10</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1661.2187903197823</v>
       </c>
       <c r="I85" s="1">
-        <f>POWER(POWER(2,1/12), A85)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1631.0148123139682</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4273,15 +4456,15 @@
         <v>11</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1760.0000000000016</v>
       </c>
       <c r="I86" s="1">
-        <f>POWER(POWER(2,1/12), A86)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1728.0000000000016</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4289,15 +4472,15 @@
         <v>12</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1864.6550460723613</v>
       </c>
       <c r="I87" s="1">
-        <f>POWER(POWER(2,1/12), A87)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1830.7522270528639</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4305,15 +4488,15 @@
         <v>13</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1975.5332050244986</v>
       </c>
       <c r="I88" s="1">
-        <f>POWER(POWER(2,1/12), A88)*13.5</f>
+        <f t="shared" si="7"/>
         <v>1939.6144194785984</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4321,15 +4504,15 @@
         <v>2</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2093.0045224047913</v>
       </c>
       <c r="I89" s="1">
-        <f>POWER(POWER(2,1/12), A89)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2054.9498947247043</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4337,15 +4520,15 @@
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2217.4610478149789</v>
       </c>
       <c r="I90" s="1">
-        <f>POWER(POWER(2,1/12), A90)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2177.143574218343</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4353,15 +4536,15 @@
         <v>4</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2349.3181433392629</v>
       </c>
       <c r="I91" s="1">
-        <f>POWER(POWER(2,1/12), A91)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2306.6032680058215</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4369,15 +4552,15 @@
         <v>5</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2489.0158697766497</v>
       </c>
       <c r="I92" s="1">
-        <f>POWER(POWER(2,1/12), A92)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2443.7610357807107</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4385,15 +4568,15 @@
         <v>6</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2637.0204553029625</v>
       </c>
       <c r="I93" s="1">
-        <f>POWER(POWER(2,1/12), A93)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2589.0746288429086</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4401,15 +4584,15 @@
         <v>7</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2793.8258514640338</v>
       </c>
       <c r="I94" s="1">
-        <f>POWER(POWER(2,1/12), A94)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2743.0290178010514</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4417,15 +4600,15 @@
         <v>8</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2959.9553816930779</v>
       </c>
       <c r="I95" s="1">
-        <f>POWER(POWER(2,1/12), A95)*13.5</f>
+        <f t="shared" si="7"/>
         <v>2906.1380111168401</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4433,15 +4616,15 @@
         <v>9</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3135.9634878539978</v>
       </c>
       <c r="I96" s="1">
-        <f>POWER(POWER(2,1/12), A96)*13.5</f>
+        <f t="shared" si="7"/>
         <v>3078.9459698930159</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4449,15 +4632,15 @@
         <v>10</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3322.4375806395647</v>
       </c>
       <c r="I97" s="1">
-        <f>POWER(POWER(2,1/12), A97)*13.5</f>
+        <f t="shared" si="7"/>
         <v>3262.0296246279363</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4465,15 +4648,15 @@
         <v>11</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3520.0000000000041</v>
       </c>
       <c r="I98" s="1">
-        <f>POWER(POWER(2,1/12), A98)*13.5</f>
+        <f t="shared" si="7"/>
         <v>3456.0000000000036</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4481,15 +4664,15 @@
         <v>12</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3729.3100921447235</v>
       </c>
       <c r="I99" s="1">
-        <f>POWER(POWER(2,1/12), A99)*13.5</f>
+        <f t="shared" si="7"/>
         <v>3661.5044541057287</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4497,15 +4680,15 @@
         <v>13</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3951.0664100489971</v>
       </c>
       <c r="I100" s="1">
-        <f>POWER(POWER(2,1/12), A100)*13.5</f>
+        <f t="shared" si="7"/>
         <v>3879.2288389571968</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4513,11 +4696,11 @@
         <v>2</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4186.0090448095834</v>
       </c>
       <c r="I101" s="1">
-        <f>POWER(POWER(2,1/12), A101)*13.5</f>
+        <f t="shared" si="7"/>
         <v>4109.8997894494096</v>
       </c>
     </row>
@@ -4528,14 +4711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4543,12 +4726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
